--- a/data/asegurados_graph3.xlsx
+++ b/data/asegurados_graph3.xlsx
@@ -22,7 +22,7 @@
     <t>dic-2024</t>
   </si>
   <si>
-    <t>may-2025</t>
+    <t>jun-2025</t>
   </si>
   <si>
     <t>dif</t>
@@ -43,22 +43,22 @@
     <t>Quintana Roo</t>
   </si>
   <si>
-    <t>Baja California</t>
+    <t>Guanajuato</t>
   </si>
   <si>
     <t>Sinaloa</t>
   </si>
   <si>
+    <t>CDMX</t>
+  </si>
+  <si>
     <t>Veracruz</t>
   </si>
   <si>
-    <t>Campeche</t>
-  </si>
-  <si>
     <t>Oaxaca</t>
   </si>
   <si>
-    <t>Guerrero</t>
+    <t>Tabasco</t>
   </si>
 </sst>
 </file>
@@ -450,13 +450,13 @@
         <v>1876507</v>
       </c>
       <c r="D2">
-        <v>1913529</v>
+        <v>1918960</v>
       </c>
       <c r="E2">
-        <v>37022</v>
+        <v>42453</v>
       </c>
       <c r="F2">
-        <v>1.972920964323608</v>
+        <v>2.262341680579929</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -470,13 +470,13 @@
         <v>1915193</v>
       </c>
       <c r="D3">
-        <v>1942067</v>
+        <v>1943395</v>
       </c>
       <c r="E3">
-        <v>26874</v>
+        <v>28202</v>
       </c>
       <c r="F3">
-        <v>1.403200617379032</v>
+        <v>1.472540887524129</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -490,13 +490,13 @@
         <v>2026081</v>
       </c>
       <c r="D4">
-        <v>2044807</v>
+        <v>2042927</v>
       </c>
       <c r="E4">
-        <v>18726</v>
+        <v>16846</v>
       </c>
       <c r="F4">
-        <v>0.9242473524010145</v>
+        <v>0.8314573800356452</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -510,13 +510,13 @@
         <v>512165</v>
       </c>
       <c r="D5">
-        <v>526777</v>
+        <v>527401</v>
       </c>
       <c r="E5">
-        <v>14612</v>
+        <v>15236</v>
       </c>
       <c r="F5">
-        <v>2.852986830415979</v>
+        <v>2.974822566946199</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -527,16 +527,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>1008302</v>
+        <v>1110485</v>
       </c>
       <c r="D6">
-        <v>1021585</v>
+        <v>1124195</v>
       </c>
       <c r="E6">
-        <v>13283</v>
+        <v>13710</v>
       </c>
       <c r="F6">
-        <v>1.317363250296042</v>
+        <v>1.234595694673949</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -550,13 +550,13 @@
         <v>605219</v>
       </c>
       <c r="D7">
-        <v>584140</v>
+        <v>569151</v>
       </c>
       <c r="E7">
-        <v>-21079</v>
+        <v>-36068</v>
       </c>
       <c r="F7">
-        <v>-3.482871489493886</v>
+        <v>-5.959495653639427</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -567,16 +567,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>777756</v>
+        <v>3479354</v>
       </c>
       <c r="D8">
-        <v>770370</v>
+        <v>3464080</v>
       </c>
       <c r="E8">
-        <v>-7386</v>
+        <v>-15274</v>
       </c>
       <c r="F8">
-        <v>-0.9496551617731011</v>
+        <v>-0.4389895365633966</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -587,16 +587,16 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>135625</v>
+        <v>777756</v>
       </c>
       <c r="D9">
-        <v>128276</v>
+        <v>768836</v>
       </c>
       <c r="E9">
-        <v>-7349</v>
+        <v>-8920</v>
       </c>
       <c r="F9">
-        <v>-5.418617511520737</v>
+        <v>-1.146889255756304</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -610,13 +610,13 @@
         <v>236905</v>
       </c>
       <c r="D10">
-        <v>231425</v>
+        <v>229463</v>
       </c>
       <c r="E10">
-        <v>-5480</v>
+        <v>-7442</v>
       </c>
       <c r="F10">
-        <v>-2.313163504358287</v>
+        <v>-3.141343576539119</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -627,16 +627,16 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>163156</v>
+        <v>206079</v>
       </c>
       <c r="D11">
-        <v>159924</v>
+        <v>199380</v>
       </c>
       <c r="E11">
-        <v>-3232</v>
+        <v>-6699</v>
       </c>
       <c r="F11">
-        <v>-1.980926230111059</v>
+        <v>-3.250695121773689</v>
       </c>
     </row>
   </sheetData>
